--- a/data/input/employee_absence_data_13.xlsx
+++ b/data/input/employee_absence_data_13.xlsx
@@ -464,21 +464,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33403</v>
+        <v>85523</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yago da Costa</t>
+          <t>Ana Liz Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,21 +488,21 @@
         <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>3577.37</v>
+        <v>3187.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39076</v>
+        <v>35015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Peixoto</t>
+          <t>Sara Mendonça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -514,140 +514,140 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>4149.57</v>
+        <v>6666.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76590</v>
+        <v>28014</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eloá Peixoto</t>
+          <t>Ravi Lucca Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>6806.01</v>
+        <v>4969.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32621</v>
+        <v>36475</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brayan Melo</t>
+          <t>Heitor da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>5494.63</v>
+        <v>7505.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66801</v>
+        <v>61840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Helena Freitas</t>
+          <t>Vinicius Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45093</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>6895.19</v>
+        <v>9727.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65600</v>
+        <v>80193</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bento Novaes</t>
+          <t>Maysa Leão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45078</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>4612.3</v>
+        <v>8282.309999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16561</v>
+        <v>40673</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sofia Sampaio</t>
+          <t>Luna Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>12313.21</v>
+        <v>3385.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42946</v>
+        <v>19875</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juan Pacheco</t>
+          <t>Marcos Vinicius Gonçalves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -685,56 +685,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>4465.7</v>
+        <v>5643.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43895</v>
+        <v>29406</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alexandre Carvalho</t>
+          <t>Luiz Miguel Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>3269.88</v>
+        <v>9160.450000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1618</v>
+        <v>93862</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Clarice Moraes</t>
+          <t>Evelyn Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>4477.47</v>
+        <v>9628.280000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_13.xlsx
+++ b/data/input/employee_absence_data_13.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85523</v>
+        <v>53287</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Liz Lima</t>
+          <t>Maria Clara Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45101</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>3187.25</v>
+        <v>6966.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35015</v>
+        <v>96045</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sara Mendonça</t>
+          <t>Dr. Noah Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>6666.56</v>
+        <v>4343.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28014</v>
+        <v>79748</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ravi Lucca Costa</t>
+          <t>Danilo Guerra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,216 +540,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>4969.03</v>
+        <v>9030.110000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36475</v>
+        <v>38307</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heitor da Luz</t>
+          <t>Antônio Montenegro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>7505.13</v>
+        <v>2816.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61840</v>
+        <v>83757</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vinicius Oliveira</t>
+          <t>Pietro da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>9727.65</v>
+        <v>6620.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80193</v>
+        <v>72727</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maysa Leão</t>
+          <t>Srta. Ester Teixeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>8282.309999999999</v>
+        <v>8369.620000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40673</v>
+        <v>4302</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luna Carvalho</t>
+          <t>Heitor Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>3385.38</v>
+        <v>4518.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19875</v>
+        <v>39378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Gonçalves</t>
+          <t>Rodrigo Casa Grande</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>5643.04</v>
+        <v>6837.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29406</v>
+        <v>14991</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Miguel Castro</t>
+          <t>Brenda Pires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>9160.450000000001</v>
+        <v>5324.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>93862</v>
+        <v>16432</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Evelyn Vieira</t>
+          <t>João Felipe Sousa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45098</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>9628.280000000001</v>
+        <v>3591.24</v>
       </c>
     </row>
   </sheetData>
